--- a/natmiOut/OldD7/LR-pairs_lrc2p/App-Cd74.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/App-Cd74.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H2">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.55954125519651</v>
+        <v>1.656454333333333</v>
       </c>
       <c r="N2">
-        <v>1.55954125519651</v>
+        <v>4.969363</v>
       </c>
       <c r="O2">
-        <v>0.000690865426135478</v>
+        <v>0.0006990759915034363</v>
       </c>
       <c r="P2">
-        <v>0.000690865426135478</v>
+        <v>0.0006990759915034364</v>
       </c>
       <c r="Q2">
-        <v>160.6372358227644</v>
+        <v>171.3229940582495</v>
       </c>
       <c r="R2">
-        <v>160.6372358227644</v>
+        <v>1541.906946524245</v>
       </c>
       <c r="S2">
-        <v>0.000177580302141827</v>
+        <v>0.0001737574548487271</v>
       </c>
       <c r="T2">
-        <v>0.000177580302141827</v>
+        <v>0.0001737574548487271</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H3">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I3">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J3">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.49108132849603</v>
+        <v>6.599386</v>
       </c>
       <c r="N3">
-        <v>6.49108132849603</v>
+        <v>19.798158</v>
       </c>
       <c r="O3">
-        <v>0.002875501788201422</v>
+        <v>0.002785149109411345</v>
       </c>
       <c r="P3">
-        <v>0.002875501788201422</v>
+        <v>0.002785149109411345</v>
       </c>
       <c r="Q3">
-        <v>668.6000505828063</v>
+        <v>682.5582484914634</v>
       </c>
       <c r="R3">
-        <v>668.6000505828063</v>
+        <v>6143.024236423171</v>
       </c>
       <c r="S3">
-        <v>0.0007391200327023427</v>
+        <v>0.0006922572460037563</v>
       </c>
       <c r="T3">
-        <v>0.0007391200327023427</v>
+        <v>0.0006922572460037563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H4">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I4">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J4">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2245.97350795696</v>
+        <v>2347.576497333333</v>
       </c>
       <c r="N4">
-        <v>2245.97350795696</v>
+        <v>7042.729492</v>
       </c>
       <c r="O4">
-        <v>0.9949499184413444</v>
+        <v>0.9907513503260664</v>
       </c>
       <c r="P4">
-        <v>0.9949499184413444</v>
+        <v>0.9907513503260664</v>
       </c>
       <c r="Q4">
-        <v>231341.7326070689</v>
+        <v>242804.0581683758</v>
       </c>
       <c r="R4">
-        <v>231341.7326070689</v>
+        <v>2185236.523515382</v>
       </c>
       <c r="S4">
-        <v>0.2557422914056097</v>
+        <v>0.2462542486266325</v>
       </c>
       <c r="T4">
-        <v>0.2557422914056097</v>
+        <v>0.2462542486266325</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H5">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I5">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J5">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.34929733542378</v>
+        <v>13.65875266666666</v>
       </c>
       <c r="N5">
-        <v>3.34929733542378</v>
+        <v>40.97625799999999</v>
       </c>
       <c r="O5">
-        <v>0.001483714344318776</v>
+        <v>0.005764424573018837</v>
       </c>
       <c r="P5">
-        <v>0.001483714344318776</v>
+        <v>0.005764424573018838</v>
       </c>
       <c r="Q5">
-        <v>344.9872609129746</v>
+        <v>1412.691165017186</v>
       </c>
       <c r="R5">
-        <v>344.9872609129746</v>
+        <v>12714.22048515467</v>
       </c>
       <c r="S5">
-        <v>0.0003813744784279061</v>
+        <v>0.001432765185257102</v>
       </c>
       <c r="T5">
-        <v>0.0003813744784279061</v>
+        <v>0.001432765185257102</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H6">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I6">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J6">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.55954125519651</v>
+        <v>1.656454333333333</v>
       </c>
       <c r="N6">
-        <v>1.55954125519651</v>
+        <v>4.969363</v>
       </c>
       <c r="O6">
-        <v>0.000690865426135478</v>
+        <v>0.0006990759915034363</v>
       </c>
       <c r="P6">
-        <v>0.000690865426135478</v>
+        <v>0.0006990759915034364</v>
       </c>
       <c r="Q6">
-        <v>335.8330939205667</v>
+        <v>358.0103678922191</v>
       </c>
       <c r="R6">
-        <v>335.8330939205667</v>
+        <v>3222.093311029971</v>
       </c>
       <c r="S6">
-        <v>0.0003712547839993858</v>
+        <v>0.0003630976138162643</v>
       </c>
       <c r="T6">
-        <v>0.0003712547839993858</v>
+        <v>0.0003630976138162643</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H7">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I7">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J7">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.49108132849603</v>
+        <v>6.599386</v>
       </c>
       <c r="N7">
-        <v>6.49108132849603</v>
+        <v>19.798158</v>
       </c>
       <c r="O7">
-        <v>0.002875501788201422</v>
+        <v>0.002785149109411345</v>
       </c>
       <c r="P7">
-        <v>0.002875501788201422</v>
+        <v>0.002785149109411345</v>
       </c>
       <c r="Q7">
-        <v>1397.795613405664</v>
+        <v>1426.328853249054</v>
       </c>
       <c r="R7">
-        <v>1397.795613405664</v>
+        <v>12836.95967924149</v>
       </c>
       <c r="S7">
-        <v>0.001545226834175404</v>
+        <v>0.001446596661937835</v>
       </c>
       <c r="T7">
-        <v>0.001545226834175404</v>
+        <v>0.001446596661937834</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H8">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I8">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J8">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2245.97350795696</v>
+        <v>2347.576497333333</v>
       </c>
       <c r="N8">
-        <v>2245.97350795696</v>
+        <v>7042.729492</v>
       </c>
       <c r="O8">
-        <v>0.9949499184413444</v>
+        <v>0.9907513503260664</v>
       </c>
       <c r="P8">
-        <v>0.9949499184413444</v>
+        <v>0.9907513503260664</v>
       </c>
       <c r="Q8">
-        <v>483650.0666638488</v>
+        <v>507382.9737123854</v>
       </c>
       <c r="R8">
-        <v>483650.0666638488</v>
+        <v>4566446.763411469</v>
       </c>
       <c r="S8">
-        <v>0.5346626174758278</v>
+        <v>0.5145927704010819</v>
       </c>
       <c r="T8">
-        <v>0.5346626174758278</v>
+        <v>0.5145927704010818</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H9">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I9">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J9">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.34929733542378</v>
+        <v>13.65875266666666</v>
       </c>
       <c r="N9">
-        <v>3.34929733542378</v>
+        <v>40.97625799999999</v>
       </c>
       <c r="O9">
-        <v>0.001483714344318776</v>
+        <v>0.005764424573018837</v>
       </c>
       <c r="P9">
-        <v>0.001483714344318776</v>
+        <v>0.005764424573018838</v>
       </c>
       <c r="Q9">
-        <v>721.2408667403589</v>
+        <v>2952.073575914354</v>
       </c>
       <c r="R9">
-        <v>721.2408667403589</v>
+        <v>26568.66218322918</v>
       </c>
       <c r="S9">
-        <v>0.0007973130910575326</v>
+        <v>0.002994021870191332</v>
       </c>
       <c r="T9">
-        <v>0.0007973130910575326</v>
+        <v>0.002994021870191332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H10">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I10">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J10">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.55954125519651</v>
+        <v>1.656454333333333</v>
       </c>
       <c r="N10">
-        <v>1.55954125519651</v>
+        <v>4.969363</v>
       </c>
       <c r="O10">
-        <v>0.000690865426135478</v>
+        <v>0.0006990759915034363</v>
       </c>
       <c r="P10">
-        <v>0.000690865426135478</v>
+        <v>0.0006990759915034364</v>
       </c>
       <c r="Q10">
-        <v>93.0334108632925</v>
+        <v>118.6142637946583</v>
       </c>
       <c r="R10">
-        <v>93.0334108632925</v>
+        <v>1067.528374151925</v>
       </c>
       <c r="S10">
-        <v>0.0001028460252429654</v>
+        <v>0.0001202997455128992</v>
       </c>
       <c r="T10">
-        <v>0.0001028460252429654</v>
+        <v>0.0001202997455128992</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H11">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I11">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J11">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.49108132849603</v>
+        <v>6.599386</v>
       </c>
       <c r="N11">
-        <v>6.49108132849603</v>
+        <v>19.798158</v>
       </c>
       <c r="O11">
-        <v>0.002875501788201422</v>
+        <v>0.002785149109411345</v>
       </c>
       <c r="P11">
-        <v>0.002875501788201422</v>
+        <v>0.002785149109411345</v>
       </c>
       <c r="Q11">
-        <v>387.2211999322358</v>
+        <v>472.56437810245</v>
       </c>
       <c r="R11">
-        <v>387.2211999322358</v>
+        <v>4253.079402922051</v>
       </c>
       <c r="S11">
-        <v>0.0004280630037456274</v>
+        <v>0.000479279410464514</v>
       </c>
       <c r="T11">
-        <v>0.0004280630037456274</v>
+        <v>0.0004792794104645141</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H12">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I12">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J12">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2245.97350795696</v>
+        <v>2347.576497333333</v>
       </c>
       <c r="N12">
-        <v>2245.97350795696</v>
+        <v>7042.729492</v>
       </c>
       <c r="O12">
-        <v>0.9949499184413444</v>
+        <v>0.9907513503260664</v>
       </c>
       <c r="P12">
-        <v>0.9949499184413444</v>
+        <v>0.9907513503260664</v>
       </c>
       <c r="Q12">
-        <v>133982.0767533985</v>
+        <v>168103.6732069096</v>
       </c>
       <c r="R12">
-        <v>133982.0767533985</v>
+        <v>1512933.058862187</v>
       </c>
       <c r="S12">
-        <v>0.148113714417428</v>
+        <v>0.1704923881800926</v>
       </c>
       <c r="T12">
-        <v>0.148113714417428</v>
+        <v>0.1704923881800926</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H13">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I13">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J13">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.34929733542378</v>
+        <v>13.65875266666666</v>
       </c>
       <c r="N13">
-        <v>3.34929733542378</v>
+        <v>40.97625799999999</v>
       </c>
       <c r="O13">
-        <v>0.001483714344318776</v>
+        <v>0.005764424573018837</v>
       </c>
       <c r="P13">
-        <v>0.001483714344318776</v>
+        <v>0.005764424573018838</v>
       </c>
       <c r="Q13">
-        <v>199.8001361435922</v>
+        <v>978.0667412966166</v>
       </c>
       <c r="R13">
-        <v>199.8001361435922</v>
+        <v>8802.600671669548</v>
       </c>
       <c r="S13">
-        <v>0.0002208738737480766</v>
+        <v>0.0009919648472995226</v>
       </c>
       <c r="T13">
-        <v>0.0002208738737480766</v>
+        <v>0.0009919648472995228</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H14">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I14">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J14">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.55954125519651</v>
+        <v>1.656454333333333</v>
       </c>
       <c r="N14">
-        <v>1.55954125519651</v>
+        <v>4.969363</v>
       </c>
       <c r="O14">
-        <v>0.000690865426135478</v>
+        <v>0.0006990759915034363</v>
       </c>
       <c r="P14">
-        <v>0.000690865426135478</v>
+        <v>0.0006990759915034364</v>
       </c>
       <c r="Q14">
-        <v>35.4457106635105</v>
+        <v>41.33383295762467</v>
       </c>
       <c r="R14">
-        <v>35.4457106635105</v>
+        <v>372.0044966186221</v>
       </c>
       <c r="S14">
-        <v>3.918431475129981E-05</v>
+        <v>4.192117732554574E-05</v>
       </c>
       <c r="T14">
-        <v>3.918431475129981E-05</v>
+        <v>4.192117732554574E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H15">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I15">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J15">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.49108132849603</v>
+        <v>6.599386</v>
       </c>
       <c r="N15">
-        <v>6.49108132849603</v>
+        <v>19.798158</v>
       </c>
       <c r="O15">
-        <v>0.002875501788201422</v>
+        <v>0.002785149109411345</v>
       </c>
       <c r="P15">
-        <v>0.002875501788201422</v>
+        <v>0.002785149109411345</v>
       </c>
       <c r="Q15">
-        <v>147.5311986114752</v>
+        <v>164.675785536428</v>
       </c>
       <c r="R15">
-        <v>147.5311986114752</v>
+        <v>1482.082069827852</v>
       </c>
       <c r="S15">
-        <v>0.0001630919175780474</v>
+        <v>0.0001670157910052399</v>
       </c>
       <c r="T15">
-        <v>0.0001630919175780474</v>
+        <v>0.0001670157910052399</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H16">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I16">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J16">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2245.97350795696</v>
+        <v>2347.576497333333</v>
       </c>
       <c r="N16">
-        <v>2245.97350795696</v>
+        <v>7042.729492</v>
       </c>
       <c r="O16">
-        <v>0.9949499184413444</v>
+        <v>0.9907513503260664</v>
       </c>
       <c r="P16">
-        <v>0.9949499184413444</v>
+        <v>0.9907513503260664</v>
       </c>
       <c r="Q16">
-        <v>51047.14405962979</v>
+        <v>58579.54115810514</v>
       </c>
       <c r="R16">
-        <v>51047.14405962979</v>
+        <v>527215.8704229463</v>
       </c>
       <c r="S16">
-        <v>0.05643129514247905</v>
+        <v>0.05941194311825936</v>
       </c>
       <c r="T16">
-        <v>0.05643129514247905</v>
+        <v>0.05941194311825936</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H17">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I17">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J17">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.34929733542378</v>
+        <v>13.65875266666666</v>
       </c>
       <c r="N17">
-        <v>3.34929733542378</v>
+        <v>40.97625799999999</v>
       </c>
       <c r="O17">
-        <v>0.001483714344318776</v>
+        <v>0.005764424573018837</v>
       </c>
       <c r="P17">
-        <v>0.001483714344318776</v>
+        <v>0.005764424573018838</v>
       </c>
       <c r="Q17">
-        <v>76.12381133356995</v>
+        <v>340.8295597243613</v>
       </c>
       <c r="R17">
-        <v>76.12381133356995</v>
+        <v>3067.466037519252</v>
       </c>
       <c r="S17">
-        <v>8.415290108526066E-05</v>
+        <v>0.0003456726702708802</v>
       </c>
       <c r="T17">
-        <v>8.415290108526066E-05</v>
+        <v>0.0003456726702708802</v>
       </c>
     </row>
   </sheetData>
